--- a/heroin_sensitivity_analysis/100000_6-06_16-1134/confidence_intervals_alpha_piecewise.xlsx
+++ b/heroin_sensitivity_analysis/100000_6-06_16-1134/confidence_intervals_alpha_piecewise.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillips/Documents/Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillips/Documents/Research/Heroin_model/heroin_sensitivity_analysis/100000_6-06_16-1134/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7194E3-8CB1-2344-B10C-A5D2A57C07F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C79A7E-E103-9A41-8A4A-006F4F5A8CAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="16100" windowHeight="16740" xr2:uid="{422B52F1-0FE3-EA42-8278-51CC7FE06F15}"/>
+    <workbookView xWindow="11300" yWindow="460" windowWidth="16100" windowHeight="16740" xr2:uid="{422B52F1-0FE3-EA42-8278-51CC7FE06F15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
   <si>
     <t>                   S1       S1_conf            ST       ST_conf</t>
   </si>
@@ -236,7 +236,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>6</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -263,6 +263,420 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
+      <t>'A_sens'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]                                                         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Out[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF3B1E"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB23622"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]: </t>
+    </r>
+  </si>
+  <si>
+    <t>m        9.276129e-06  2.736545e-05  1.084697e-05  1.267256e-07</t>
+  </si>
+  <si>
+    <t>beta_A   6.820300e-05  9.374291e-05  9.934812e-05  1.092334e-06</t>
+  </si>
+  <si>
+    <t>beta_P   2.514058e-04  1.570686e-04  2.920148e-04  3.759984e-06</t>
+  </si>
+  <si>
+    <t>theta_1 -1.267786e-07  1.952117e-06  4.318588e-08  5.951461e-10</t>
+  </si>
+  <si>
+    <t>epsilon  3.984523e-03  6.323256e-04  4.723716e-03  6.077025e-05</t>
+  </si>
+  <si>
+    <t>gamma    3.489883e-03  5.937101e-04  4.219755e-03  4.117493e-05</t>
+  </si>
+  <si>
+    <t>sigma    1.681385e-01  3.300143e-03  1.956526e-01  2.087198e-03</t>
+  </si>
+  <si>
+    <t>mu       9.626642e-04  2.877633e-04  1.185778e-03  1.427629e-05</t>
+  </si>
+  <si>
+    <t>mu_A     4.676736e-04  2.064333e-04  5.561324e-04  6.877766e-06</t>
+  </si>
+  <si>
+    <t>mu_H     5.287731e-04  2.104394e-04  6.331585e-04  8.097039e-06</t>
+  </si>
+  <si>
+    <t>theta_2  3.694020e-05  6.968828e-05  5.433989e-05  8.168938e-07</t>
+  </si>
+  <si>
+    <t>zeta     5.197177e-01  6.167742e-03  5.536260e-01  5.774592e-03</t>
+  </si>
+  <si>
+    <t>theta_3  2.231002e-04  1.567611e-04  3.259542e-04  4.501579e-06</t>
+  </si>
+  <si>
+    <t>nu       5.471916e-04  2.433192e-04  6.585777e-04  7.855554e-06</t>
+  </si>
+  <si>
+    <t>omega   -7.718537e-13  5.403150e-11  3.472346e-17  3.461906e-19</t>
+  </si>
+  <si>
+    <t>b        4.626851e-03  6.800261e-04  5.121782e-03  6.174446e-05</t>
+  </si>
+  <si>
+    <t>c        3.805526e-05  5.518030e-05  3.960977e-05  4.319323e-07</t>
+  </si>
+  <si>
+    <t>P_0      4.687130e-06  2.189634e-05  7.527206e-06  1.213115e-07</t>
+  </si>
+  <si>
+    <t>A_0      7.325580e-02  2.167745e-03  8.245265e-02  9.388221e-04</t>
+  </si>
+  <si>
+    <t>H_0      1.324715e-02  1.218058e-03  1.536068e-02  2.191342e-04</t>
+  </si>
+  <si>
+    <t>R_0      1.599116e-01  3.127290e-03  1.878562e-01  2.563421e-03</t>
+  </si>
+  <si>
+    <r>
+      <t>In [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2EE721"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF34A327"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">]: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>store[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCD7923"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'H_sens'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]                                                         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Out[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF3B1E"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB23622"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]: </t>
+    </r>
+  </si>
+  <si>
+    <t>m       -1.124971e-06  7.229257e-06  1.058767e-06  2.423097e-08</t>
+  </si>
+  <si>
+    <t>beta_A   1.198478e-05  3.403471e-05  1.505048e-05  1.798511e-07</t>
+  </si>
+  <si>
+    <t>beta_P   4.128541e-05  7.258989e-05  6.068033e-05  9.547934e-07</t>
+  </si>
+  <si>
+    <t>theta_1  2.776750e-06  1.229096e-05  1.936335e-06  2.325349e-08</t>
+  </si>
+  <si>
+    <t>epsilon  2.019411e-04  2.113303e-04  4.669030e-04  1.121024e-05</t>
+  </si>
+  <si>
+    <t>gamma    6.536751e-04  2.750971e-04  8.771541e-04  1.582798e-05</t>
+  </si>
+  <si>
+    <t>sigma    2.175744e-01  3.980952e-03  2.681440e-01  3.469004e-03</t>
+  </si>
+  <si>
+    <t>mu       1.094278e-03  2.964675e-04  1.345106e-03  2.024465e-05</t>
+  </si>
+  <si>
+    <t>mu_A     7.306393e-05  7.231483e-05  8.554301e-05  9.841156e-07</t>
+  </si>
+  <si>
+    <t>mu_H     2.386350e-02  1.524148e-03  2.791891e-02  3.083372e-04</t>
+  </si>
+  <si>
+    <t>theta_2  1.822705e-03  4.323177e-04  2.325005e-03  3.662733e-05</t>
+  </si>
+  <si>
+    <t>zeta     1.271515e-01  2.796039e-03  1.527834e-01  1.626025e-03</t>
+  </si>
+  <si>
+    <t>theta_3  1.728220e-03  4.735522e-04  2.372278e-03  3.544840e-05</t>
+  </si>
+  <si>
+    <t>nu       2.090912e-02  1.324357e-03  2.445331e-02  3.184315e-04</t>
+  </si>
+  <si>
+    <t>omega   -3.633811e-12  6.521741e-11  6.301626e-17  8.337404e-19</t>
+  </si>
+  <si>
+    <t>b        1.449878e-04  1.835768e-04  4.822381e-04  1.169712e-05</t>
+  </si>
+  <si>
+    <t>c        3.130715e-06  1.736033e-05  4.895189e-06  9.221216e-08</t>
+  </si>
+  <si>
+    <t>P_0     -1.005699e-06  1.235126e-05  2.891798e-06  7.901050e-08</t>
+  </si>
+  <si>
+    <t>A_0      7.659481e-02  2.632530e-03  9.595208e-02  1.145220e-03</t>
+  </si>
+  <si>
+    <t>H_0      2.261963e-01  3.766919e-03  2.509692e-01  2.898552e-03</t>
+  </si>
+  <si>
+    <t>R_0      2.130118e-01  4.185734e-03  2.631259e-01  3.393408e-03</t>
+  </si>
+  <si>
+    <r>
+      <t>In [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2EE721"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF34A327"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">]: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>store[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCD7923"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'R_sens'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]                                                         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Out[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF3B1E"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB23622"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]: </t>
+    </r>
+  </si>
+  <si>
+    <t>m        6.528884e-08  2.824580e-06  1.077056e-07  1.247362e-09</t>
+  </si>
+  <si>
+    <t>beta_A   1.861803e-06  1.191517e-05  1.707052e-06  1.576483e-08</t>
+  </si>
+  <si>
+    <t>beta_P   5.124190e-06  2.077892e-05  6.210112e-06  6.159961e-08</t>
+  </si>
+  <si>
+    <t>theta_1  5.527790e-09  7.973405e-08  9.011218e-11  1.682283e-12</t>
+  </si>
+  <si>
+    <t>epsilon  8.181573e-05  7.922489e-05  9.702939e-05  1.078804e-06</t>
+  </si>
+  <si>
+    <t>gamma    7.648015e-05  8.531692e-05  9.025855e-05  1.023783e-06</t>
+  </si>
+  <si>
+    <t>sigma    9.240140e-03  8.554147e-04  1.002050e-02  9.555612e-05</t>
+  </si>
+  <si>
+    <t>mu       3.192989e-03  5.404459e-04  3.428971e-03  2.718025e-05</t>
+  </si>
+  <si>
+    <t>mu_A     8.369297e-06  2.331732e-05  9.660900e-06  9.054393e-08</t>
+  </si>
+  <si>
+    <t>mu_H    -2.898915e-07  1.139628e-05  1.336624e-06  2.426412e-08</t>
+  </si>
+  <si>
+    <t>theta_2 -5.411844e-07  3.190483e-06  1.163255e-07  2.818611e-09</t>
+  </si>
+  <si>
+    <t>zeta     5.612714e-03  6.891504e-04  5.989213e-03  5.858307e-05</t>
+  </si>
+  <si>
+    <t>theta_3  1.363969e-06  1.098966e-05  2.028629e-06  2.576335e-08</t>
+  </si>
+  <si>
+    <t>nu       7.143094e-05  8.414602e-05  8.086255e-05  8.600501e-07</t>
+  </si>
+  <si>
+    <t>omega    1.481107e-14  1.264313e-11  2.006991e-18  1.756196e-20</t>
+  </si>
+  <si>
+    <t>b        8.468441e-05  7.764669e-05  9.386610e-05  9.154612e-07</t>
+  </si>
+  <si>
+    <t>c        4.795099e-08  2.062391e-06  5.776036e-08  6.410141e-10</t>
+  </si>
+  <si>
+    <t>P_0      7.622078e-07  1.025671e-05  1.111876e-06  1.134114e-08</t>
+  </si>
+  <si>
+    <t>A_0      1.049280e-02  9.349796e-04  1.069388e-02  8.340990e-05</t>
+  </si>
+  <si>
+    <t>H_0      1.037921e-04  9.176916e-05  1.263810e-04  2.019916e-06</t>
+  </si>
+  <si>
+    <t>R_0      9.696654e-01  7.532814e-03  9.706743e-01  6.325762e-03</t>
+  </si>
+  <si>
+    <r>
+      <t>In [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2EE721"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF34A327"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">]: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>store[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCD7923"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
       <t>'S_sens'</t>
     </r>
     <r>
@@ -287,7 +701,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>6</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -300,418 +714,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>In [</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF2EE721"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF34A327"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">]: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>store[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCD7923"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>'A_sens'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]                                                         </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Out[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF3B1E"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB23622"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]: </t>
-    </r>
-  </si>
-  <si>
-    <t>m        9.276129e-06  2.736545e-05  1.084697e-05  1.267256e-07</t>
-  </si>
-  <si>
-    <t>beta_A   6.820300e-05  9.374291e-05  9.934812e-05  1.092334e-06</t>
-  </si>
-  <si>
-    <t>beta_P   2.514058e-04  1.570686e-04  2.920148e-04  3.759984e-06</t>
-  </si>
-  <si>
-    <t>theta_1 -1.267786e-07  1.952117e-06  4.318588e-08  5.951461e-10</t>
-  </si>
-  <si>
-    <t>epsilon  3.984523e-03  6.323256e-04  4.723716e-03  6.077025e-05</t>
-  </si>
-  <si>
-    <t>gamma    3.489883e-03  5.937101e-04  4.219755e-03  4.117493e-05</t>
-  </si>
-  <si>
-    <t>sigma    1.681385e-01  3.300143e-03  1.956526e-01  2.087198e-03</t>
-  </si>
-  <si>
-    <t>mu       9.626642e-04  2.877633e-04  1.185778e-03  1.427629e-05</t>
-  </si>
-  <si>
-    <t>mu_A     4.676736e-04  2.064333e-04  5.561324e-04  6.877766e-06</t>
-  </si>
-  <si>
-    <t>mu_H     5.287731e-04  2.104394e-04  6.331585e-04  8.097039e-06</t>
-  </si>
-  <si>
-    <t>theta_2  3.694020e-05  6.968828e-05  5.433989e-05  8.168938e-07</t>
-  </si>
-  <si>
-    <t>zeta     5.197177e-01  6.167742e-03  5.536260e-01  5.774592e-03</t>
-  </si>
-  <si>
-    <t>theta_3  2.231002e-04  1.567611e-04  3.259542e-04  4.501579e-06</t>
-  </si>
-  <si>
-    <t>nu       5.471916e-04  2.433192e-04  6.585777e-04  7.855554e-06</t>
-  </si>
-  <si>
-    <t>omega   -7.718537e-13  5.403150e-11  3.472346e-17  3.461906e-19</t>
-  </si>
-  <si>
-    <t>b        4.626851e-03  6.800261e-04  5.121782e-03  6.174446e-05</t>
-  </si>
-  <si>
-    <t>c        3.805526e-05  5.518030e-05  3.960977e-05  4.319323e-07</t>
-  </si>
-  <si>
-    <t>P_0      4.687130e-06  2.189634e-05  7.527206e-06  1.213115e-07</t>
-  </si>
-  <si>
-    <t>A_0      7.325580e-02  2.167745e-03  8.245265e-02  9.388221e-04</t>
-  </si>
-  <si>
-    <t>H_0      1.324715e-02  1.218058e-03  1.536068e-02  2.191342e-04</t>
-  </si>
-  <si>
-    <t>R_0      1.599116e-01  3.127290e-03  1.878562e-01  2.563421e-03</t>
-  </si>
-  <si>
-    <r>
-      <t>In [</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF2EE721"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF34A327"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">]: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>store[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCD7923"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>'H_sens'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]                                                         </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Out[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF3B1E"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB23622"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]: </t>
-    </r>
-  </si>
-  <si>
-    <t>m       -1.124971e-06  7.229257e-06  1.058767e-06  2.423097e-08</t>
-  </si>
-  <si>
-    <t>beta_A   1.198478e-05  3.403471e-05  1.505048e-05  1.798511e-07</t>
-  </si>
-  <si>
-    <t>beta_P   4.128541e-05  7.258989e-05  6.068033e-05  9.547934e-07</t>
-  </si>
-  <si>
-    <t>theta_1  2.776750e-06  1.229096e-05  1.936335e-06  2.325349e-08</t>
-  </si>
-  <si>
-    <t>epsilon  2.019411e-04  2.113303e-04  4.669030e-04  1.121024e-05</t>
-  </si>
-  <si>
-    <t>gamma    6.536751e-04  2.750971e-04  8.771541e-04  1.582798e-05</t>
-  </si>
-  <si>
-    <t>sigma    2.175744e-01  3.980952e-03  2.681440e-01  3.469004e-03</t>
-  </si>
-  <si>
-    <t>mu       1.094278e-03  2.964675e-04  1.345106e-03  2.024465e-05</t>
-  </si>
-  <si>
-    <t>mu_A     7.306393e-05  7.231483e-05  8.554301e-05  9.841156e-07</t>
-  </si>
-  <si>
-    <t>mu_H     2.386350e-02  1.524148e-03  2.791891e-02  3.083372e-04</t>
-  </si>
-  <si>
-    <t>theta_2  1.822705e-03  4.323177e-04  2.325005e-03  3.662733e-05</t>
-  </si>
-  <si>
-    <t>zeta     1.271515e-01  2.796039e-03  1.527834e-01  1.626025e-03</t>
-  </si>
-  <si>
-    <t>theta_3  1.728220e-03  4.735522e-04  2.372278e-03  3.544840e-05</t>
-  </si>
-  <si>
-    <t>nu       2.090912e-02  1.324357e-03  2.445331e-02  3.184315e-04</t>
-  </si>
-  <si>
-    <t>omega   -3.633811e-12  6.521741e-11  6.301626e-17  8.337404e-19</t>
-  </si>
-  <si>
-    <t>b        1.449878e-04  1.835768e-04  4.822381e-04  1.169712e-05</t>
-  </si>
-  <si>
-    <t>c        3.130715e-06  1.736033e-05  4.895189e-06  9.221216e-08</t>
-  </si>
-  <si>
-    <t>P_0     -1.005699e-06  1.235126e-05  2.891798e-06  7.901050e-08</t>
-  </si>
-  <si>
-    <t>A_0      7.659481e-02  2.632530e-03  9.595208e-02  1.145220e-03</t>
-  </si>
-  <si>
-    <t>H_0      2.261963e-01  3.766919e-03  2.509692e-01  2.898552e-03</t>
-  </si>
-  <si>
-    <t>R_0      2.130118e-01  4.185734e-03  2.631259e-01  3.393408e-03</t>
-  </si>
-  <si>
-    <r>
-      <t>In [</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF2EE721"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF34A327"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">]: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>store[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCD7923"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>'R_sens'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]                                                         </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Out[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF3B1E"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB23622"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]: </t>
-    </r>
-  </si>
-  <si>
-    <t>m        6.528884e-08  2.824580e-06  1.077056e-07  1.247362e-09</t>
-  </si>
-  <si>
-    <t>beta_A   1.861803e-06  1.191517e-05  1.707052e-06  1.576483e-08</t>
-  </si>
-  <si>
-    <t>beta_P   5.124190e-06  2.077892e-05  6.210112e-06  6.159961e-08</t>
-  </si>
-  <si>
-    <t>theta_1  5.527790e-09  7.973405e-08  9.011218e-11  1.682283e-12</t>
-  </si>
-  <si>
-    <t>epsilon  8.181573e-05  7.922489e-05  9.702939e-05  1.078804e-06</t>
-  </si>
-  <si>
-    <t>gamma    7.648015e-05  8.531692e-05  9.025855e-05  1.023783e-06</t>
-  </si>
-  <si>
-    <t>sigma    9.240140e-03  8.554147e-04  1.002050e-02  9.555612e-05</t>
-  </si>
-  <si>
-    <t>mu       3.192989e-03  5.404459e-04  3.428971e-03  2.718025e-05</t>
-  </si>
-  <si>
-    <t>mu_A     8.369297e-06  2.331732e-05  9.660900e-06  9.054393e-08</t>
-  </si>
-  <si>
-    <t>mu_H    -2.898915e-07  1.139628e-05  1.336624e-06  2.426412e-08</t>
-  </si>
-  <si>
-    <t>theta_2 -5.411844e-07  3.190483e-06  1.163255e-07  2.818611e-09</t>
-  </si>
-  <si>
-    <t>zeta     5.612714e-03  6.891504e-04  5.989213e-03  5.858307e-05</t>
-  </si>
-  <si>
-    <t>theta_3  1.363969e-06  1.098966e-05  2.028629e-06  2.576335e-08</t>
-  </si>
-  <si>
-    <t>nu       7.143094e-05  8.414602e-05  8.086255e-05  8.600501e-07</t>
-  </si>
-  <si>
-    <t>omega    1.481107e-14  1.264313e-11  2.006991e-18  1.756196e-20</t>
-  </si>
-  <si>
-    <t>b        8.468441e-05  7.764669e-05  9.386610e-05  9.154612e-07</t>
-  </si>
-  <si>
-    <t>c        4.795099e-08  2.062391e-06  5.776036e-08  6.410141e-10</t>
-  </si>
-  <si>
-    <t>P_0      7.622078e-07  1.025671e-05  1.111876e-06  1.134114e-08</t>
-  </si>
-  <si>
-    <t>A_0      1.049280e-02  9.349796e-04  1.069388e-02  8.340990e-05</t>
-  </si>
-  <si>
-    <t>H_0      1.037921e-04  9.176916e-05  1.263810e-04  2.019916e-06</t>
-  </si>
-  <si>
-    <t>R_0      9.696654e-01  7.532814e-03  9.706743e-01  6.325762e-03</t>
+    <t>A_0      1.675154e-03  3.281553e-04  1.669439e-03  1.628861e-05</t>
+  </si>
+  <si>
+    <t>H_0      1.303725e-05  3.137304e-05  1.262492e-05  1.229544e-07</t>
+  </si>
+  <si>
+    <t>R_0      1.336072e-01  3.224039e-03  1.337674e-01  1.376732e-03</t>
+  </si>
+  <si>
+    <t>From 100000_6-06_16-1134 folder</t>
   </si>
 </sst>
 </file>
@@ -1104,9 +1116,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58280B28-9715-B446-AE02-01979457CE9F}">
-  <dimension ref="A1:A129"/>
+  <dimension ref="A1:A132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:G132"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1115,589 +1129,618 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
+      <c r="A4" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>44</v>
+      <c r="A5" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>47</v>
+      <c r="A56" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>48</v>
+      <c r="A57" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
